--- a/doc/Schema_Mapping_Chart_Ver_0_1.xlsx
+++ b/doc/Schema_Mapping_Chart_Ver_0_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\MongoDB_Task\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0ED31AD4-2EE1-4C75-9939-34252FA0C48D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Mapping Chart" sheetId="3" r:id="rId1"/>
@@ -66,9 +67,6 @@
     <t>Check</t>
   </si>
   <si>
-    <t>NoSQL</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -148,12 +146,15 @@
   </si>
   <si>
     <t>Depth</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -692,11 +693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,14 +732,14 @@
         <v>3</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:25" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
@@ -768,19 +769,19 @@
         <v>12</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>5</v>
@@ -789,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>10</v>
@@ -801,10 +802,10 @@
         <v>12</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -815,16 +816,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="13">
         <v>20</v>
@@ -833,45 +834,45 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="K7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="13">
         <v>0</v>
       </c>
       <c r="P7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="R7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,16 +883,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="13">
         <v>300</v>
@@ -907,16 +908,16 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="S8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -933,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="13">
         <v>300</v>
@@ -955,21 +956,21 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="R9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -986,16 +987,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="13">
         <v>7</v>
@@ -1010,19 +1011,19 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="Q10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="R10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1488,21 +1489,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,14 +1573,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0946-04EB-4DB0-B72E-7805BDF64099}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A57A3BE2-A148-46DD-AA32-FBFE2C995472}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1590,6 +1583,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0B0946-04EB-4DB0-B72E-7805BDF64099}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
